--- a/data/transformed_data_2000.xlsx
+++ b/data/transformed_data_2000.xlsx
@@ -126,7 +126,7 @@
     <t>Imports of end-use goods</t>
   </si>
   <si>
-    <t>Imports of waste</t>
+    <t>Imports of loss</t>
   </si>
   <si>
     <t>Imports of generated scrap</t>
@@ -138,7 +138,7 @@
     <t>Reference flow start</t>
   </si>
   <si>
-    <t>Waste</t>
+    <t>Loss</t>
   </si>
   <si>
     <t>Exports of iron ore</t>
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2823.708407433369</v>
+        <v>2904.317752648403</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>39.68911061696105</v>
+        <v>210.809110616961</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>11086.64175512236</v>
+        <v>11738.8446391349</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>854.072560083594</v>
+        <v>889.4754440961333</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>19008.08</v>
+        <v>19796</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>80070.00000000001</v>
+        <v>82598.52631578948</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1601.400000000009</v>
+        <v>4129.926315789475</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>49189.60170697013</v>
+        <v>50742.95755034813</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>983.7920341394056</v>
+        <v>2537.147877517411</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2400,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>10188.72704287674</v>
+        <v>6839.657112936839</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2498,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>5650.241706970133</v>
+        <v>8944.203866137614</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2610,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2778,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>215.28</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3939,7 +3939,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>241.3710482901847</v>
+        <v>241.3710482901849</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4163,7 +4163,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>3140.857180016074</v>
+        <v>3430.507558302996</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4177,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1355.299268594807</v>
+        <v>1065.648890307884</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5165,13 +5165,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>289.6503782869222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5179,13 +5179,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>289.6503782869229</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5694,10 +5694,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -6668,7 +6668,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1489.254410714733</v>
+        <v>1506.593943195683</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6906,7 +6906,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>13631.79608017904</v>
+        <v>13772.08866116128</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7004,7 +7004,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>702.1571995820286</v>
+        <v>708.1897805642657</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7102,7 +7102,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>15627.08</v>
+        <v>15761.34</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7284,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>15933.13192145065</v>
+        <v>16011.50471598026</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7354,7 +7354,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1897.571921450653</v>
+        <v>1975.944715980264</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7452,7 +7452,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>11361.82807854935</v>
+        <v>11417.71528401973</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7522,7 +7522,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1353.148021650342</v>
+        <v>1409.03522712073</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7858,7 +7858,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>7131.718109976171</v>
+        <v>7155.09022343936</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9411,7 +9411,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1633.881710789332</v>
+        <v>1702.22731326899</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -9649,7 +9649,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>292.2537604298291</v>
+        <v>845.2318168561615</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -9747,7 +9747,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>19.59487983281088</v>
+        <v>43.37293625914322</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -9845,7 +9845,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>436.1</v>
+        <v>965.3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -10027,7 +10027,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>15124.5720029471</v>
+        <v>15489.7038377822</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -10097,7 +10097,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1287.952002947106</v>
+        <v>1653.083837782202</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -10195,7 +10195,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>6796.067997052897</v>
+        <v>6960.136162217801</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>578.7277410073775</v>
+        <v>742.7959061722813</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -10601,7 +10601,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>12507.42191828398</v>
+        <v>12599.54557718997</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>12660.7</v>
+        <v>10665.58106908695</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>6498.322018717921</v>
+        <v>4503.203087804874</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -12154,7 +12154,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>426.9101623999336</v>
+        <v>427.0367283304513</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12392,7 +12392,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>4102.441761724293</v>
+        <v>4103.46579516212</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12490,7 +12490,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>457.683552769071</v>
+        <v>457.7275862068964</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -12588,7 +12588,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>10186.12</v>
+        <v>10187.1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12770,7 +12770,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>7214.161349336872</v>
+        <v>7214.68697129311</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -12840,7 +12840,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1168.541349336872</v>
+        <v>1169.06697129311</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -12938,7 +12938,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>6236.338650663125</v>
+        <v>6236.79302870689</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -13008,7 +13008,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1010.154781530835</v>
+        <v>1010.6091595746</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -13344,7 +13344,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>278.7204038168034</v>
+        <v>278.8910031851447</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13526,7 +13526,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>51.35</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>3048.842704035423</v>
+        <v>3044.892704035423</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -14222,7 +14222,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14897,7 +14897,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>36.02949237376788</v>
+        <v>38.55268421052637</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -15513,7 +15513,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1589</v>
+        <v>1639.178947368421</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -15583,7 +15583,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>31.77999999999997</v>
+        <v>81.95894736842115</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -16087,7 +16087,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>27.24083976152559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -16137,13 +16137,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>20.4149157701371</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -16185,7 +16185,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>223.86</v>
+        <v>274.0389473684212</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -16666,10 +16666,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -16680,10 +16680,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -16694,10 +16694,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -16708,10 +16708,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -16722,10 +16722,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -16736,10 +16736,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -16750,10 +16750,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -16764,10 +16764,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -16792,10 +16792,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -16806,10 +16806,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -16820,10 +16820,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -16834,10 +16834,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -16848,7 +16848,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
@@ -16862,10 +16862,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -16876,7 +16876,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -16890,43 +16890,29 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>81.14546790232978</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C192" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D192">
-        <v>81.14546790232978</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>30</v>
-      </c>
-      <c r="B193" t="s">
-        <v>42</v>
-      </c>
-      <c r="C193" t="s">
-        <v>44</v>
-      </c>
-      <c r="D193">
         <v>30000</v>
       </c>
     </row>
@@ -17612,7 +17598,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1154.951386808692</v>
+        <v>1172.283335665723</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -17836,7 +17822,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>80.95999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -17850,7 +17836,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>5453.009958670596</v>
+        <v>5593.241181241129</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -17948,7 +17934,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>362.2630929989546</v>
+        <v>371.774315569488</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -18046,7 +18032,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>8062.46</v>
+        <v>8274.139999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -18228,7 +18214,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>6045.539082420323</v>
+        <v>6110.642105742827</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -18298,7 +18284,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>697.6790824203235</v>
+        <v>762.7821057428273</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -18396,7 +18382,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>13611.30091757967</v>
+        <v>13757.87789425717</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -18466,7 +18452,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1570.797873482947</v>
+        <v>1717.374850160442</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -18802,7 +18788,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>6241.924279820389</v>
+        <v>6187.807451247952</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -19012,7 +18998,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -19180,7 +19166,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>83.72</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -20355,7 +20341,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>756.6908021785684</v>
+        <v>687.5609248700321</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -20579,7 +20565,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>695.52</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -20593,7 +20579,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>11125.28126647328</v>
+        <v>10565.95771370421</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -20691,7 +20677,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>507.4853709508898</v>
+        <v>513.3418181818179</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -20789,7 +20775,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>11294.5</v>
+        <v>11424.84</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -20971,7 +20957,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>10421.37159348677</v>
+        <v>10507.26379290015</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -21041,7 +21027,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>947.7115934867688</v>
+        <v>1033.60379290015</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -21139,7 +21125,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>5392.888406513232</v>
+        <v>5437.33620709985</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -21209,7 +21195,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>490.4251632699888</v>
+        <v>534.8729638566074</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -21545,7 +21531,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>3693.950081721632</v>
+        <v>2935.156651644025</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -21923,7 +21909,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>695.52</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -23098,7 +23084,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1032.75311315372</v>
+        <v>1015.924349108776</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -23322,7 +23308,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1035.92</v>
+        <v>1172.08</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -23336,7 +23322,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>5773.009760835323</v>
+        <v>5636.849760835323</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -24288,7 +24274,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>4749.837453085028</v>
+        <v>4596.848689040085</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -24470,7 +24456,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>17231.5</v>
+        <v>17106.23428944307</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -24638,7 +24624,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>3997.613716413403</v>
+        <v>3872.348005856476</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -24666,7 +24652,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>136.16</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -26065,7 +26051,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>758.188151299833</v>
+        <v>1450.20874868196</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -26079,7 +26065,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2011.784079630157</v>
+        <v>1319.76348224803</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -27067,13 +27053,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>411.4205973821272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -27081,13 +27067,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>692.0205973821271</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -27213,7 +27199,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>92.3</v>
+        <v>78.09343898988412</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -27241,7 +27227,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -27381,7 +27367,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1072.328937897486</v>
+        <v>1058.122376887371</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -27409,7 +27395,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>286.12</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -27596,10 +27582,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -27610,10 +27596,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -31313,7 +31299,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>716.2950722793257</v>
+        <v>713.5958290919307</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -31537,7 +31523,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>4350.012235924958</v>
+        <v>4392.332235924958</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -31551,7 +31537,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2881.179804615496</v>
+        <v>2859.340473372027</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -31649,7 +31635,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>425.8033437826543</v>
+        <v>426.6840125391846</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -31747,7 +31733,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>9476.6</v>
+        <v>9496.200000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -31929,7 +31915,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>12344</v>
+        <v>12733.81052631579</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -31999,7 +31985,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>246.880000000001</v>
+        <v>636.6905263157896</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -32097,7 +32083,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>16810.73826458037</v>
+        <v>17341.60368346186</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -32167,7 +32153,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>336.2147652916065</v>
+        <v>867.0801841730936</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -32503,7 +32489,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>3121.62212916547</v>
+        <v>2176.40760953733</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -32601,7 +32587,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>2592.818264580372</v>
+        <v>3493.894209777645</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -32685,7 +32671,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>22696.7</v>
+        <v>22343.84200131665</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -32713,7 +32699,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -32853,7 +32839,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>2715.753621439584</v>
+        <v>2362.895622756238</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -32881,7 +32867,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>69.92</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -34266,7 +34252,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1206.992014493335</v>
+        <v>1379.749933662737</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -34280,7 +34266,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>482.3888331145467</v>
+        <v>309.6309139451448</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -34378,7 +34364,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>73.09550679205836</v>
+        <v>73.09550679205859</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -35268,13 +35254,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>172.7579191694022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -35282,13 +35268,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>172.7579191694019</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -35797,10 +35783,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -35811,10 +35797,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -36995,7 +36981,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>2151.0105957749</v>
+        <v>2235.54584258172</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -37009,7 +36995,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>901.6330823860197</v>
+        <v>817.0978355791999</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -37997,13 +37983,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>84.53524680681994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -38011,13 +37997,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>84.53524680681983</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -38526,10 +38512,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -38540,10 +38526,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -39500,7 +39486,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>235.2795729990112</v>
+        <v>236.54523230419</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -39738,7 +39724,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>535.2719047396258</v>
+        <v>545.5122391178912</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -39836,7 +39822,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>23.38175548589345</v>
+        <v>23.8220898641589</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -39934,7 +39920,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>520.38</v>
+        <v>530.1799999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -40116,7 +40102,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1497.382231365729</v>
+        <v>1500.0451910516</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -40186,7 +40172,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>100.8822313657286</v>
+        <v>103.5451910516003</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -40284,7 +40270,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>4013.157768634272</v>
+        <v>4020.2948089484</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -40354,7 +40340,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>270.3760616641439</v>
+        <v>277.5131019782721</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -40690,7 +40676,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1383.75827707623</v>
+        <v>1385.464270759674</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -42243,7 +42229,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>311.4824189954652</v>
+        <v>309.2508653340938</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -42467,7 +42453,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -42481,7 +42467,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2067.494628425273</v>
+        <v>2049.43933061963</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -42579,7 +42565,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>119.1104493207945</v>
+        <v>120.0351515151515</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -42677,7 +42663,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>2650.9</v>
+        <v>2671.48</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -42859,7 +42845,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1335.821317075154</v>
+        <v>1337.698098212411</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -42929,7 +42915,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>144.1413170751534</v>
+        <v>146.0180982124105</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -43027,7 +43013,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>13312.23868292485</v>
+        <v>13330.94190178759</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -43097,7 +43083,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1436.452310236369</v>
+        <v>1455.155529099113</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -43433,7 +43419,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>723.3903427000309</v>
+        <v>682.5234912330161</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -43811,7 +43797,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -44986,7 +44972,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1149.529858601221</v>
+        <v>1164.369832771439</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -45210,7 +45196,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -45224,7 +45210,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>3261.668150392241</v>
+        <v>3381.737032314916</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -45322,7 +45308,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>152.2676280041801</v>
+        <v>158.696509926855</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -45420,7 +45406,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>3388.84</v>
+        <v>3531.92</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -45602,7 +45588,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>6568.394105266605</v>
+        <v>6632.275369546443</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -45672,7 +45658,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>942.2141052666047</v>
+        <v>1006.095369546442</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -45770,7 +45756,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>8143.365894733394</v>
+        <v>8222.564630453557</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -45840,7 +45826,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1168.138526312342</v>
+        <v>1247.337262032504</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -46176,7 +46162,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>6979.285778671388</v>
+        <v>6971.114634764282</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -46358,7 +46344,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>0.65</v>
+        <v>0.5498547918683446</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -46526,7 +46512,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>10356.37665633491</v>
+        <v>10356.27651112678</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -46554,7 +46540,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -47016,7 +47002,7 @@
         <v>4</v>
       </c>
       <c r="D193">
-        <v>0.5680000000011205</v>
+        <v>0.5679999999993015</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -47715,7 +47701,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>356.9329803858864</v>
+        <v>351.3612949926282</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -47939,7 +47925,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>45.08</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -47953,7 +47939,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>128.447519730043</v>
+        <v>83.36751973004301</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -48905,7 +48891,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>2221.733473105888</v>
+        <v>2171.08178771263</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -49115,7 +49101,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -49283,7 +49269,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>84.64</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -50458,7 +50444,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>147.6064687796973</v>
+        <v>177.8527609145287</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -50500,7 +50486,7 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>5856.085074626866</v>
+        <v>5604.210447761195</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -50528,7 +50514,7 @@
         <v>7</v>
       </c>
       <c r="D53">
-        <v>440.7805970149255</v>
+        <v>692.6552238805971</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -50668,7 +50654,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>808.0549253731333</v>
+        <v>1059.929552238805</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -50682,7 +50668,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>299</v>
+        <v>54.28</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -50696,7 +50682,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>21.4299231117152</v>
+        <v>14.27529624604381</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -51648,7 +51634,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>284.9910679959551</v>
+        <v>559.9573601307868</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -51830,7 +51816,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>102265.15</v>
+        <v>97644.80784827464</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -51858,7 +51844,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>244.72</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -51998,7 +51984,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>5043.582927442898</v>
+        <v>423.2407757175242</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -53201,7 +53187,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>337.0547848128595</v>
+        <v>281.1105151499378</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -53425,7 +53411,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1403.92</v>
+        <v>1856.56</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -53439,7 +53425,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1366.053950934981</v>
+        <v>913.4139509349802</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -54391,7 +54377,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>903.7455129372838</v>
+        <v>395.1612432743614</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -54405,7 +54391,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>265.4923165945438</v>
+        <v>481.184468618063</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -54573,7 +54559,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>13908.05</v>
+        <v>13692.35784797648</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -54769,7 +54755,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>452.64</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -55930,7 +55916,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>85.3176126824228</v>
+        <v>115.3364890869173</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -56154,7 +56140,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1140.8</v>
+        <v>897.9199999999998</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -56168,7 +56154,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2293.577048066876</v>
+        <v>2536.457048066876</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -57120,7 +57106,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>193.7441076909768</v>
+        <v>466.6429840954713</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -57302,7 +57288,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>67.60000000000001</v>
+        <v>67.5708600665963</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -57330,7 +57316,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>256.68</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -57470,7 +57456,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1047.632605414109</v>
+        <v>1047.603465480705</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -57498,7 +57484,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -61416,7 +61402,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>4391.676201113762</v>
+        <v>4420.977696658127</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -61640,7 +61626,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>122.36</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -61654,7 +61640,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>24300.62842230851</v>
+        <v>24537.70415898562</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -61752,7 +61738,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1334.60946708464</v>
+        <v>1350.065203761758</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -61850,7 +61836,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>29702.82</v>
+        <v>30046.8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -62032,7 +62018,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>40302.58716410079</v>
+        <v>40437.82040210434</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -62102,7 +62088,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>3042.007164100789</v>
+        <v>3177.24040210434</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -62200,7 +62186,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>62211.29283589918</v>
+        <v>62420.03959789564</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -62270,7 +62256,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>4695.658810294633</v>
+        <v>4904.405572291093</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -62606,7 +62592,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>24388.27476305415</v>
+        <v>24310.67199527562</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -62984,7 +62970,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>122.36</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -63484,7 +63470,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -64159,7 +64145,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>278.3262539298858</v>
+        <v>284.5990887484313</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -64383,7 +64369,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>115</v>
+        <v>92.92</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -64397,7 +64383,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1579.862268906252</v>
+        <v>1630.615205165395</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -64495,7 +64481,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>86.4816718913271</v>
+        <v>87.71460815047021</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -64593,7 +64579,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1924.72</v>
+        <v>1952.16</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -64775,7 +64761,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1184.545596335228</v>
+        <v>1190.485294884186</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -64845,7 +64831,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>183.9655963352277</v>
+        <v>189.9052948841866</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -64943,7 +64929,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>4287.774403664772</v>
+        <v>4309.274705115813</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -65013,7 +64999,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>665.911871659082</v>
+        <v>687.4121731101231</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -65349,7 +65335,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1275.083249614763</v>
+        <v>1304.669020692452</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -65357,13 +65343,13 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>63.05344168260126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -65531,7 +65517,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>10386.35</v>
+        <v>10537.10774918519</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -65559,7 +65545,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -65699,7 +65685,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>87.70430750259402</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -65858,10 +65844,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
@@ -65872,10 +65858,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
@@ -65886,10 +65872,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C172" t="s">
         <v>16</v>
@@ -65900,10 +65886,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>16</v>
@@ -65914,10 +65900,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -65928,10 +65914,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -65942,10 +65928,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -65956,10 +65942,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -65970,10 +65956,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -65984,10 +65970,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -65998,10 +65984,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -66012,10 +65998,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -66026,10 +66012,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -66040,10 +66026,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -66054,10 +66040,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -66068,10 +66054,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -66082,10 +66068,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -66096,10 +66082,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -66110,10 +66096,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C188" t="s">
         <v>16</v>
@@ -66124,10 +66110,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -66138,7 +66124,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
         <v>31</v>
@@ -66152,10 +66138,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C191" t="s">
         <v>16</v>
@@ -66166,7 +66152,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -66180,29 +66166,43 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D193">
-        <v>13556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>13556</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
         <v>30</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>42</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>44</v>
       </c>
-      <c r="D194">
+      <c r="D195">
         <v>30000</v>
       </c>
     </row>
@@ -66888,7 +66888,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>6972.905183189054</v>
+        <v>6809.633546872377</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -67112,7 +67112,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1435.2</v>
+        <v>2757.24</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -67126,7 +67126,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>43912.87686208457</v>
+        <v>42591.8608955224</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -67224,7 +67224,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>2106.955966562178</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -67322,7 +67322,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>46892.02</v>
+        <v>46893</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -67504,7 +67504,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>32858.56508536141</v>
+        <v>32858.86526226967</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -67574,7 +67574,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>3558.525085361412</v>
+        <v>3558.825262269667</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -67672,7 +67672,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>74416.15491463858</v>
+        <v>74416.83473773033</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -67742,7 +67742,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>8059.139324311414</v>
+        <v>8059.819147403163</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -68078,7 +68078,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>38883.09572758186</v>
+        <v>37397.828124703</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -68260,7 +68260,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>3994.9</v>
+        <v>3867.784209608648</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -68288,7 +68288,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -68428,7 +68428,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>11267.75790480024</v>
+        <v>11140.64211440889</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -68456,7 +68456,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -69631,7 +69631,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>3144.09229228711</v>
+        <v>3450.639888825921</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -69855,7 +69855,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1766.4</v>
+        <v>1268.68</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -69869,7 +69869,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>4841.305208830459</v>
+        <v>7321.553944462643</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -69967,7 +69967,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>293.8791640543359</v>
+        <v>379.1278996865203</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -70065,7 +70065,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>6540.52</v>
+        <v>8437.799999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -70247,7 +70247,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>23788</v>
+        <v>24539.2</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -70317,7 +70317,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>475.760000000002</v>
+        <v>1226.960000000003</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -70415,7 +70415,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>22054.19630156472</v>
+        <v>22750.64460582467</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -70485,7 +70485,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>441.0839260312932</v>
+        <v>1137.532230291235</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -70821,7 +70821,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>24760.34114400413</v>
+        <v>26099.48917191518</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -70919,7 +70919,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>1773.556301564728</v>
+        <v>1323.924605824672</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -71003,7 +71003,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>11310.65</v>
+        <v>10043.28754473046</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -71031,7 +71031,7 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>497.72</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -71171,7 +71171,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>5441.594953205187</v>
+        <v>4174.232497935651</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -72360,7 +72360,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1491.037014395284</v>
+        <v>1445.98873336726</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -72584,7 +72584,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>562.12</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -72598,7 +72598,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>13590.41538241395</v>
+        <v>13225.93383591447</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -72696,7 +72696,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>803.5221734587249</v>
+        <v>812.0206269592491</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -72794,7 +72794,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>17883.04</v>
+        <v>18072.18</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -72976,7 +72976,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>18863.89355138225</v>
+        <v>18942.63931111355</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -73046,7 +73046,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1056.313551382256</v>
+        <v>1135.059311113553</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -73144,7 +73144,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>26445.42644861776</v>
+        <v>26555.82068888646</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -73214,7 +73214,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1480.853475644784</v>
+        <v>1591.247715913487</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -73550,7 +73550,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>7030.499105804784</v>
+        <v>6431.829278277284</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -73928,7 +73928,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>562.12</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -75103,7 +75103,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2651.435895734423</v>
+        <v>2678.717135563948</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -75327,7 +75327,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>418.6</v>
+        <v>505.08</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -75341,7 +75341,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>11263.13873305884</v>
+        <v>11483.8687644068</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -75439,7 +75439,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>573.491494252874</v>
+        <v>586.7015256008362</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -75537,7 +75537,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>12763.52</v>
+        <v>13057.52</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -75719,7 +75719,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>15927.99163963964</v>
+        <v>16033.24732253078</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -75789,7 +75789,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2068.83163963964</v>
+        <v>2174.087322530777</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -75887,7 +75887,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>28562.04836036035</v>
+        <v>28750.79267746921</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -75957,7 +75957,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3709.825486960632</v>
+        <v>3898.569804069492</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -76293,7 +76293,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>14405.22955961852</v>
+        <v>14359.24083079601</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -76475,7 +76475,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>13.65</v>
+        <v>13.54545454545455</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -76643,7 +76643,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>29470.22884673443</v>
+        <v>29470.12430127988</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -76671,7 +76671,7 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>86.48</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -80589,7 +80589,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>679.441169684319</v>
+        <v>684.3772409745161</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -80827,7 +80827,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>983.4543484770584</v>
+        <v>1023.391652552293</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -80925,7 +80925,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>251.254796238245</v>
+        <v>252.97210031348</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -81023,7 +81023,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>5591.88</v>
+        <v>5630.099999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -81205,7 +81205,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>8158.85519265146</v>
+        <v>8173.806576568075</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -81275,7 +81275,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1298.85519265146</v>
+        <v>1313.806576568075</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -81373,7 +81373,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>12697.50480734854</v>
+        <v>12720.77342343192</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -81443,7 +81443,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>2021.388989425352</v>
+        <v>2044.657605508737</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -81779,7 +81779,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1212.073909635019</v>
+        <v>1218.72728500045</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -81793,7 +81793,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>10286.12662775486</v>
+        <v>8078.021280020417</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -81961,7 +81961,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>104074.1</v>
+        <v>106282.2053477344</v>
       </c>
     </row>
     <row r="147" spans="1:4">

--- a/data/transformed_data_2000.xlsx
+++ b/data/transformed_data_2000.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>117038.7123186344</v>
+        <v>117995.6823186344</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11460.12</v>
+        <v>9855.7032</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4624.62</v>
+        <v>3977.1732</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8543.5777428165</v>
+        <v>8435.7385428165</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>29.4</v>
+        <v>25.284</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>799.6799999999999</v>
+        <v>687.7248</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21874.86164893314</v>
+        <v>22493.49644893314</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>10506.58</v>
+        <v>9035.658799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6087.76</v>
+        <v>5235.473599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7262.851820199146</v>
+        <v>7323.219820199145</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>761.46</v>
+        <v>654.8556</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>330.26</v>
+        <v>284.0236</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12818.59892745377</v>
+        <v>12793.62852745377</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6781.599999999999</v>
+        <v>5832.175999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6959.96</v>
+        <v>5985.5656</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2926.28</v>
+        <v>2885.12</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>31.36</v>
+        <v>26.9696</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>325.36</v>
+        <v>279.8096</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18760,7 +18760,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15379.60621792318</v>
+        <v>15454.10581792318</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19096,7 +19096,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9418.780000000001</v>
+        <v>8100.150799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19264,7 +19264,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8886.639999999999</v>
+        <v>7642.510399999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21503,7 +21503,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14914.56278918919</v>
+        <v>15007.58438918919</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21839,7 +21839,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6279.84</v>
+        <v>5400.6624</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22007,7 +22007,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5615.4</v>
+        <v>4829.244</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24246,7 +24246,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16161.67278805121</v>
+        <v>16037.64398805121</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7626.36</v>
+        <v>6558.669599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24750,7 +24750,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8512.280000000001</v>
+        <v>7320.5608</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -26989,7 +26989,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4855.810921763868</v>
+        <v>4733.291321763869</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27325,7 +27325,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>571.34</v>
+        <v>491.3524</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27493,7 +27493,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1446.48</v>
+        <v>1243.9728</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29718,7 +29718,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6599.059038406827</v>
+        <v>6651.332238406828</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30054,7 +30054,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2521.54</v>
+        <v>2168.5244</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30222,7 +30222,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2148.16</v>
+        <v>1847.4176</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32461,7 +32461,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>23660.52700938833</v>
+        <v>23706.76340938833</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32797,7 +32797,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1040.76</v>
+        <v>895.0536</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32965,7 +32965,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>710.5</v>
+        <v>611.03</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35190,7 +35190,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4101.053965811258</v>
+        <v>4050.701565811259</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35526,7 +35526,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26.46</v>
+        <v>22.7556</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35694,7 +35694,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>386.12</v>
+        <v>332.0632</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37919,7 +37919,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4301.469120914585</v>
+        <v>4174.284720914585</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38255,7 +38255,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>36.26</v>
+        <v>31.1836</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38423,7 +38423,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>944.72</v>
+        <v>812.4591999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40648,7 +40648,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3548.03306799431</v>
+        <v>3495.21106799431</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40984,7 +40984,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2170.7</v>
+        <v>1866.802</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41152,7 +41152,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2548</v>
+        <v>2191.28</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43391,7 +43391,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4054.362956291965</v>
+        <v>4071.101356291964</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43727,7 +43727,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5374.32</v>
+        <v>4621.915199999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43895,7 +43895,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5254.76</v>
+        <v>4519.093599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46134,7 +46134,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13371.29433684211</v>
+        <v>13038.17273684211</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46470,7 +46470,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5666.36</v>
+        <v>4873.0696</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46638,7 +46638,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8045.8</v>
+        <v>6919.387999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48863,7 +48863,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4523.688196870555</v>
+        <v>4434.370996870555</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49199,7 +49199,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3359.44</v>
+        <v>2889.1184</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49367,7 +49367,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3997.42</v>
+        <v>3437.7812</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6634.154079089616</v>
+        <v>6431.098079089616</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>497.84</v>
+        <v>428.1424</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1948.24</v>
+        <v>1675.4864</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54349,7 +54349,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2554.391105547653</v>
+        <v>2554.528305547653</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54685,7 +54685,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>705.6</v>
+        <v>606.816</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54853,7 +54853,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>704.62</v>
+        <v>605.9732</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57078,7 +57078,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5291.269446941677</v>
+        <v>5254.774246941678</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57414,7 +57414,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>758.52</v>
+        <v>652.3271999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57582,7 +57582,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1019.2</v>
+        <v>876.5119999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59821,7 +59821,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5511.408227027027</v>
+        <v>5552.842627027027</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60157,7 +60157,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1283.8</v>
+        <v>1104.068</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60325,7 +60325,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>987.84</v>
+        <v>849.5423999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62564,7 +62564,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>51922.24566201992</v>
+        <v>54083.83166201992</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62900,7 +62900,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>18631.76</v>
+        <v>16023.3136</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63068,7 +63068,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3191.86</v>
+        <v>2744.9996</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65307,7 +65307,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2985.304577524893</v>
+        <v>2994.222577524893</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65643,7 +65643,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2054.08</v>
+        <v>1766.5088</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65811,7 +65811,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1990.38</v>
+        <v>1711.7268</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68050,7 +68050,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>113922.9486076814</v>
+        <v>112062.6538076813</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68386,7 +68386,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>16128.84</v>
+        <v>13870.8024</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68554,7 +68554,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>29416.66</v>
+        <v>25298.3276</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70793,7 +70793,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>28932.96024295874</v>
+        <v>29007.45984295875</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71129,7 +71129,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2103.08</v>
+        <v>1808.6488</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71297,7 +71297,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1570.94</v>
+        <v>1351.0084</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73522,7 +73522,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24445.57715675675</v>
+        <v>25798.64355675675</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73858,7 +73858,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11053.42</v>
+        <v>9505.941200000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74026,7 +74026,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1388.66</v>
+        <v>1194.2476</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76265,7 +76265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>27775.48687112375</v>
+        <v>28353.51047112375</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76601,7 +76601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>17203.9</v>
+        <v>14795.354</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76769,7 +76769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>13075.16</v>
+        <v>11244.6376</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -79008,7 +79008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11963.35791199125</v>
+        <v>11916.02391199125</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79344,7 +79344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1053.5</v>
+        <v>906.01</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79512,7 +79512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1391.6</v>
+        <v>1196.776</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81751,7 +81751,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13068.31600341394</v>
+        <v>13148.98960341394</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82087,7 +82087,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1636.6</v>
+        <v>1407.476</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82255,7 +82255,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1060.36</v>
+        <v>911.9096</v>
       </c>
     </row>
     <row r="168" spans="1:4">
